--- a/Selenium/GeneratingCssSelector.xlsx
+++ b/Selenium/GeneratingCssSelector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\Selenium\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\Mphasis Training\Selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B957C9E-3AA2-4542-8E6D-06CD7D17D334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E73AD5-CFF7-462E-99EA-D05A4B12FDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C6AB815A-1AE5-46E7-B70C-5436BE549544}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{C6AB815A-1AE5-46E7-B70C-5436BE549544}"/>
   </bookViews>
   <sheets>
     <sheet name="CSSSelector" sheetId="1" r:id="rId1"/>
@@ -21,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>Type</t>
   </si>
@@ -211,6 +205,15 @@
   </si>
   <si>
     <t>//tag[text()="&lt;text of webelement&gt;"]</t>
+  </si>
+  <si>
+    <t>Finding Sibling</t>
+  </si>
+  <si>
+    <t>//div[@class='canvas- graph']/following-sibling::h4</t>
+  </si>
+  <si>
+    <t>Finds all the siblings of div having tag as h4</t>
   </si>
 </sst>
 </file>
@@ -311,6 +314,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1680531</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81DF1610-E7AF-6FE3-3B72-4245A8F8F39D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2393950"/>
+          <a:ext cx="6849431" cy="6096851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -755,10 +807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F34659-FC90-4E40-A08D-89F0DA91C6A1}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -881,7 +933,19 @@
         <v>56</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>